--- a/database/relatorio/PE 90004-2024/ADEMANA_MATERIAIS_DE_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/ADEMANA_MATERIAIS_DE_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,96 +446,147 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Gotejador elétrico digital: espátula elétrica dupla; botão de controle soft touch; 2 circuitos que operam simultaneamente; tensão de corrente constante; "chip" de controle e redefinição; 6 tipos de pontas; painel digital a led; comandos independentes das canetas; display da temperatura em celsius ou fahrenheit; memória de temperatura; tensão de entrada: 110/220v e ou bivolt automático; corrente 2a; frequência: 50ºc/122ºf; para qualquer tipo de cera; temperatura máxima de trabalho: 200ºc/392ºf; com garantia.</t>
+          <t>Gotejador elétrico digital: espátula elétrica dupla; botão de controle soft touch; 2 circuitos que operam simultaneamente; tensão de corrente constante; "chip" de controle e redefinição; 6 tipos de pontas; painel digital a led; comandos independentes das canetas; display da temperatura em celsius ou fahrenheit; memória de temperatura; tensão de entrada: 110/220v e ou bivolt automático; corrente 2a; frequência: 50ºc/122ºf; para qualquer tipo de cera; temperatura máxima de trabalho: 200ºc/392ºf; com garantia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 853.0</t>
+          <t>Marca:  sjk</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1706.0</t>
+          <t>Modelo:  gotejador duplo</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 853,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.706,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 33 - HIPOCLORITO DE SÓDIO (437156)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Hipoclorito de sódio, aspecto físico: solução aquosa, concentração: 2,5% de cloro ativo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 30.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 9.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 270.0</t>
+          <t>Hipoclorito de sódio, aspecto físico: solução aquosa, concentração: 2,5% de cloro ativo</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 63 - MOLDEIRA ODONTOLÓGICA (428183)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  asfer</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  soda clorada</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Moldeira descartável sortida p/ flúor cx c/ 100 un.</t>
+          <t>Quantidade: 30</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 9,00</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 270,00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 54.0</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 540.0</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 63 - MOLDEIRA ODONTOLÓGICA (428183)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Moldeira descartável sortida p/ flúor cx c/ 100 un.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>UF: Conjunto</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  preven</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  moldeira de fluor</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 54,00</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 540,00</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/relatorio/PE 90004-2024/ADEMANA_MATERIAIS_DE_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/ADEMANA_MATERIAIS_DE_PRODUTOS_HOSPITALARES_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 22 - EQUIPAMENTO ODONTOLÓGICO (416157)</t>
+          <t>Item 22 - EQUIPAMENTO ODONTOLÓGICO (416157)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 33 - HIPOCLORITO DE SÓDIO (437156)</t>
+          <t>Item 33 - HIPOCLORITO DE SÓDIO (437156)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 63 - MOLDEIRA ODONTOLÓGICA (428183)</t>
+          <t>Item 63 - MOLDEIRA ODONTOLÓGICA (428183)</t>
         </is>
       </c>
     </row>
